--- a/docs/CareConnect-Problem-List-1.xlsx
+++ b/docs/CareConnect-Problem-List-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1817" uniqueCount="371">
   <si>
     <t>Path</t>
   </si>
@@ -335,6 +335,20 @@
 </t>
   </si>
   <si>
+    <t>To record the clinical setting of a problem list</t>
+  </si>
+  <si>
+    <t>To record the clinical setting of a problem list.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>List.modifierExtension</t>
   </si>
   <si>
@@ -478,7 +492,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -2310,7 +2324,7 @@
         <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>41</v>
@@ -2325,10 +2339,10 @@
         <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2388,10 +2402,10 @@
         <v>40</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>41</v>
@@ -2402,11 +2416,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2428,13 +2442,13 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2484,7 +2498,7 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>39</v>
@@ -2507,7 +2521,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2530,13 +2544,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2587,7 +2601,7 @@
         <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>39</v>
@@ -2602,15 +2616,15 @@
         <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2633,13 +2647,13 @@
         <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2690,7 +2704,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>39</v>
@@ -2705,7 +2719,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>41</v>
@@ -2713,11 +2727,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2739,13 +2753,13 @@
         <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -2786,7 +2800,7 @@
         <v>96</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>41</v>
@@ -2795,7 +2809,7 @@
         <v>97</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2810,7 +2824,7 @@
         <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2818,7 +2832,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2844,16 +2858,16 @@
         <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2878,13 +2892,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2902,7 +2916,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2917,7 +2931,7 @@
         <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>41</v>
@@ -2925,7 +2939,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2948,19 +2962,19 @@
         <v>49</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2988,10 +3002,10 @@
         <v>71</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
@@ -3009,7 +3023,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -3024,7 +3038,7 @@
         <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>41</v>
@@ -3032,7 +3046,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3058,14 +3072,14 @@
         <v>61</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3078,7 +3092,7 @@
         <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>41</v>
@@ -3114,7 +3128,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -3129,7 +3143,7 @@
         <v>41</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>41</v>
@@ -3137,7 +3151,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3160,16 +3174,16 @@
         <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3183,7 +3197,7 @@
         <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>41</v>
@@ -3219,7 +3233,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -3234,7 +3248,7 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
@@ -3242,7 +3256,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3265,13 +3279,13 @@
         <v>49</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3322,7 +3336,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -3337,7 +3351,7 @@
         <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>41</v>
@@ -3345,7 +3359,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3368,16 +3382,16 @@
         <v>49</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3427,7 +3441,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3442,7 +3456,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3450,7 +3464,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3476,13 +3490,13 @@
         <v>67</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3508,32 +3522,32 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="AF21" t="s" s="2">
         <v>48</v>
       </c>
@@ -3547,15 +3561,15 @@
         <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3581,16 +3595,16 @@
         <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3615,13 +3629,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3639,7 +3653,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>48</v>
@@ -3654,15 +3668,15 @@
         <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3685,17 +3699,17 @@
         <v>49</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3708,44 +3722,44 @@
         <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="T23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
       </c>
@@ -3759,7 +3773,7 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3767,7 +3781,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3790,19 +3804,19 @@
         <v>49</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
@@ -3827,7 +3841,7 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" t="s" s="2">
@@ -3849,7 +3863,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3864,15 +3878,15 @@
         <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3895,13 +3909,13 @@
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3952,7 +3966,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3967,7 +3981,7 @@
         <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>41</v>
@@ -3975,11 +3989,11 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4001,13 +4015,13 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4048,7 +4062,7 @@
         <v>96</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>41</v>
@@ -4057,7 +4071,7 @@
         <v>97</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4072,7 +4086,7 @@
         <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -4080,7 +4094,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4103,19 +4117,19 @@
         <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4164,7 +4178,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4179,7 +4193,7 @@
         <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -4187,7 +4201,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4210,13 +4224,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4267,7 +4281,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4282,7 +4296,7 @@
         <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -4290,11 +4304,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4316,13 +4330,13 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4363,7 +4377,7 @@
         <v>96</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>41</v>
@@ -4372,7 +4386,7 @@
         <v>97</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4387,7 +4401,7 @@
         <v>41</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4395,7 +4409,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4421,23 +4435,23 @@
         <v>61</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>41</v>
@@ -4479,7 +4493,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4494,7 +4508,7 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
@@ -4502,7 +4516,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4525,16 +4539,16 @@
         <v>49</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4584,7 +4598,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4599,7 +4613,7 @@
         <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>41</v>
@@ -4607,7 +4621,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4633,21 +4647,21 @@
         <v>67</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>41</v>
@@ -4689,7 +4703,7 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4704,7 +4718,7 @@
         <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>41</v>
@@ -4712,7 +4726,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4735,24 +4749,24 @@
         <v>49</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>41</v>
@@ -4794,7 +4808,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>39</v>
@@ -4809,7 +4823,7 @@
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>41</v>
@@ -4817,7 +4831,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4840,19 +4854,19 @@
         <v>49</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -4901,7 +4915,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4916,7 +4930,7 @@
         <v>41</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>41</v>
@@ -4924,7 +4938,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4947,19 +4961,19 @@
         <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5008,7 +5022,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -5023,7 +5037,7 @@
         <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>41</v>
@@ -5031,7 +5045,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5054,19 +5068,19 @@
         <v>49</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5115,7 +5129,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -5130,15 +5144,15 @@
         <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5161,13 +5175,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5218,7 +5232,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5233,15 +5247,15 @@
         <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5264,19 +5278,19 @@
         <v>49</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5325,7 +5339,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5340,19 +5354,19 @@
         <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5371,19 +5385,19 @@
         <v>49</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5432,7 +5446,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5447,15 +5461,15 @@
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5478,19 +5492,19 @@
         <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
@@ -5515,13 +5529,13 @@
         <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>41</v>
@@ -5539,7 +5553,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5554,7 +5568,7 @@
         <v>41</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>41</v>
@@ -5562,7 +5576,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5585,13 +5599,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5642,7 +5656,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5657,7 +5671,7 @@
         <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>41</v>
@@ -5665,7 +5679,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5688,13 +5702,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5745,7 +5759,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5760,7 +5774,7 @@
         <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>41</v>
@@ -5768,11 +5782,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -5794,13 +5808,13 @@
         <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5841,7 +5855,7 @@
         <v>96</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AC43" t="s" s="2">
         <v>41</v>
@@ -5850,7 +5864,7 @@
         <v>97</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5865,7 +5879,7 @@
         <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>41</v>
@@ -5873,7 +5887,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5896,13 +5910,13 @@
         <v>49</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5953,7 +5967,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>39</v>
@@ -5968,7 +5982,7 @@
         <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>41</v>
@@ -5976,7 +5990,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5999,13 +6013,13 @@
         <v>49</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6056,7 +6070,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -6071,7 +6085,7 @@
         <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>41</v>
@@ -6079,7 +6093,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6102,13 +6116,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6159,7 +6173,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>48</v>
@@ -6174,7 +6188,7 @@
         <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>41</v>
@@ -6182,7 +6196,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6205,16 +6219,16 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6264,7 +6278,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>39</v>
@@ -6273,13 +6287,13 @@
         <v>40</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>41</v>
@@ -6287,7 +6301,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6310,13 +6324,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6367,7 +6381,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6382,7 +6396,7 @@
         <v>41</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>41</v>
@@ -6390,11 +6404,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6416,13 +6430,13 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6472,7 +6486,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6487,7 +6501,7 @@
         <v>41</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>41</v>
@@ -6495,11 +6509,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6521,13 +6535,13 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6577,7 +6591,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6600,7 +6614,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6623,19 +6637,19 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>41</v>
@@ -6660,13 +6674,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -6684,7 +6698,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6699,7 +6713,7 @@
         <v>41</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>41</v>
@@ -6707,7 +6721,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6730,22 +6744,22 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
@@ -6791,7 +6805,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6800,13 +6814,13 @@
         <v>48</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>41</v>
@@ -6814,7 +6828,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6837,19 +6851,19 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -6898,7 +6912,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6913,7 +6927,7 @@
         <v>41</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>41</v>
@@ -6921,7 +6935,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6944,13 +6958,13 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7001,7 +7015,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>48</v>
@@ -7016,7 +7030,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>41</v>
@@ -7024,7 +7038,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7047,19 +7061,19 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7084,13 +7098,13 @@
         <v>41</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>41</v>
@@ -7108,7 +7122,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -7117,13 +7131,13 @@
         <v>48</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>41</v>
